--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:09:40+10:00</t>
+    <t>2024-06-26T05:55:02+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:54:29+10:00</t>
+    <t>2024-06-28T19:57:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -406,7 +406,188 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+  </si>
+  <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.text.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.text.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>dataAbsentReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>Use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.text.extension:dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>Observation.text.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.text.extension:dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t>Observation.text.extension.extension</t>
+  </si>
+  <si>
+    <t>Observation.text.extension:dataAbsentReason.url</t>
+  </si>
+  <si>
+    <t>Observation.text.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.text.extension:dataAbsentReason.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.text.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>masked</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>Observation.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Set to '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Observation.contained</t>
@@ -432,9 +613,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.extension</t>
   </si>
   <si>
@@ -442,10 +620,6 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -456,10 +630,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -577,9 +747,6 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Codes providing the status of an observation.</t>
@@ -900,39 +1067,10 @@
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.value[x].extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1083,9 +1221,6 @@
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1882,7 +2017,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1891,9 +2026,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.8359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2759,7 +2894,7 @@
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2771,7 +2906,7 @@
         <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>80</v>
@@ -2782,21 +2917,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2816,9 +2951,7 @@
       <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>80</v>
@@ -2867,31 +3000,31 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>80</v>
@@ -2902,18 +3035,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2928,17 +3061,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2975,16 +3106,16 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>141</v>
@@ -3011,7 +3142,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>80</v>
@@ -3025,43 +3156,41 @@
         <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3109,7 +3238,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3133,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>80</v>
@@ -3144,10 +3273,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3158,7 +3287,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -3167,21 +3296,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3229,34 +3356,34 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>80</v>
@@ -3264,21 +3391,21 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3287,21 +3414,19 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3337,19 +3462,19 @@
         <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3361,19 +3486,19 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -3384,21 +3509,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -3407,19 +3532,19 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3427,7 +3552,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>80</v>
@@ -3469,31 +3594,31 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3504,10 +3629,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3524,32 +3649,28 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>80</v>
@@ -3567,13 +3688,11 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3591,34 +3710,34 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -3626,10 +3745,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3637,10 +3756,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3652,20 +3771,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3689,13 +3804,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3713,13 +3828,13 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -3737,10 +3852,10 @@
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -3748,14 +3863,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3765,29 +3880,27 @@
         <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3796,7 +3909,7 @@
         <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>80</v>
@@ -3811,13 +3924,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3835,7 +3948,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>91</v>
@@ -3847,69 +3960,67 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3957,34 +4068,34 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>80</v>
@@ -3992,14 +4103,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4015,19 +4126,19 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4077,7 +4188,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4089,7 +4200,7 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4098,13 +4209,13 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -4112,45 +4223,45 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4199,34 +4310,34 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -4234,24 +4345,24 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4260,19 +4371,17 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4321,13 +4430,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4336,19 +4445,19 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -4356,21 +4465,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4382,18 +4491,18 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4441,13 +4550,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4456,19 +4565,19 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4476,14 +4585,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4502,18 +4611,18 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4561,7 +4670,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4576,19 +4685,19 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4596,10 +4705,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4613,28 +4722,28 @@
         <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4659,13 +4768,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4683,45 +4792,45 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4732,7 +4841,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4744,16 +4853,20 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4777,13 +4890,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4801,19 +4914,19 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4825,10 +4938,10 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4836,44 +4949,46 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4882,7 +4997,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -4897,69 +5012,69 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4982,19 +5097,19 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5043,7 +5158,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5058,19 +5173,19 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5078,10 +5193,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5092,36 +5207,34 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q27" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5141,13 +5254,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5165,13 +5278,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -5186,13 +5299,13 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5200,24 +5313,24 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
@@ -5226,17 +5339,19 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5285,7 +5400,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5300,19 +5415,19 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5320,14 +5435,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5346,24 +5461,26 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>80</v>
@@ -5405,7 +5522,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5414,25 +5531,25 @@
         <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -5440,10 +5557,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5451,13 +5568,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5466,20 +5583,18 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5503,11 +5618,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5525,7 +5642,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5546,13 +5663,13 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5560,10 +5677,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5574,7 +5691,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5583,22 +5700,20 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5623,13 +5738,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5647,34 +5762,34 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5682,45 +5797,45 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5745,13 +5860,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5769,16 +5884,16 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>103</v>
@@ -5787,27 +5902,27 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5818,7 +5933,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5830,20 +5945,16 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>357</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>358</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5891,19 +6002,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5912,10 +6023,10 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5926,21 +6037,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5952,16 +6063,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>367</v>
+        <v>195</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5987,69 +6098,69 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>364</v>
+        <v>141</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6057,34 +6168,34 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6109,13 +6220,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6133,7 +6244,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6154,10 +6265,10 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6168,10 +6279,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6188,28 +6299,30 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>384</v>
+        <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6229,13 +6342,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6253,7 +6366,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6271,27 +6384,27 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6299,33 +6412,33 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>393</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6373,7 +6486,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6391,27 +6504,27 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6419,41 +6532,39 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -6495,19 +6606,19 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>407</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6516,10 +6627,10 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6530,10 +6641,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6541,31 +6652,35 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6589,13 +6704,11 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6613,7 +6726,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6625,7 +6738,7 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6634,10 +6747,10 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6648,21 +6761,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6674,18 +6787,20 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>138</v>
+        <v>380</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6709,13 +6824,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6733,19 +6848,19 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>379</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6754,10 +6869,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>285</v>
+        <v>386</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6768,14 +6883,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6788,25 +6903,25 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>140</v>
+        <v>391</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>146</v>
+        <v>392</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6831,13 +6946,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6855,7 +6970,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6867,33 +6982,33 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>134</v>
+        <v>397</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6904,7 +7019,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6916,16 +7031,20 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6973,16 +7092,16 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
@@ -6994,10 +7113,10 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7008,10 +7127,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7034,15 +7153,17 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7067,13 +7188,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7091,7 +7212,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7100,7 +7221,7 @@
         <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
@@ -7109,27 +7230,27 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7152,19 +7273,19 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7189,13 +7310,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7213,7 +7334,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7231,13 +7352,13 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7248,10 +7369,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7262,7 +7383,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7274,20 +7395,18 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>189</v>
+        <v>427</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7311,13 +7430,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7335,13 +7454,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7353,27 +7472,27 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7396,18 +7515,18 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7455,7 +7574,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7473,27 +7592,27 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7504,7 +7623,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7516,16 +7635,20 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>281</v>
+        <v>445</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7573,20 +7696,20 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7594,10 +7717,10 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7608,10 +7731,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7622,7 +7745,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7631,20 +7754,18 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>455</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7693,19 +7814,19 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>454</v>
+        <v>132</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7714,10 +7835,10 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>460</v>
+        <v>133</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7728,14 +7849,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7751,19 +7872,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>462</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>463</v>
+        <v>193</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>464</v>
+        <v>335</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>465</v>
+        <v>195</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7813,7 +7934,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>461</v>
+        <v>141</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7825,7 +7946,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7834,10 +7955,10 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>466</v>
+        <v>133</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7848,14 +7969,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7868,25 +7989,25 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>470</v>
+        <v>195</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7935,7 +8056,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7947,7 +8068,7 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7956,10 +8077,10 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>473</v>
+        <v>161</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7970,10 +8091,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7996,13 +8117,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>282</v>
+        <v>462</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>283</v>
+        <v>463</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8053,7 +8174,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>284</v>
+        <v>460</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8062,10 +8183,10 @@
         <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8074,10 +8195,10 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>285</v>
+        <v>466</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8088,21 +8209,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8114,17 +8235,15 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>138</v>
+        <v>468</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8173,19 +8292,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>291</v>
+        <v>467</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8194,10 +8313,10 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>285</v>
+        <v>470</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8208,45 +8327,45 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>140</v>
+        <v>474</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>146</v>
+        <v>475</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8271,13 +8390,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8295,31 +8414,31 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>134</v>
+        <v>397</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8330,10 +8449,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8341,10 +8460,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8353,22 +8472,22 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>203</v>
+        <v>484</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8393,13 +8512,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>206</v>
+        <v>485</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>207</v>
+        <v>486</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8417,13 +8536,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8435,16 +8554,16 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>210</v>
+        <v>479</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>211</v>
+        <v>397</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8452,10 +8571,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8475,22 +8594,20 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>274</v>
+        <v>491</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8539,7 +8656,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8557,27 +8674,27 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>278</v>
+        <v>492</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8600,20 +8717,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8637,13 +8750,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8661,7 +8774,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8670,7 +8783,7 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
@@ -8682,10 +8795,10 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>134</v>
+        <v>465</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>343</v>
+        <v>496</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8696,14 +8809,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8719,23 +8832,21 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>189</v>
+        <v>498</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>347</v>
+        <v>500</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8759,13 +8870,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8783,7 +8894,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8801,27 +8912,27 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>353</v>
+        <v>502</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8841,23 +8952,21 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8905,7 +9014,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8926,20 +9035,1112 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>409</v>
+        <v>509</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP67" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP58">
+  <autoFilter ref="A1:AP67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8949,7 +10150,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-caculated-age.xlsx
+++ b/output/StructureDefinition-eicr-anon-caculated-age.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -407,7 +407,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
